--- a/DOM_Banner/output/dept0713/Mindy J Fain_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Mindy J Fain_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Computer Sciences, University of Arizona, Tucson, AZ, USA; Edwards Life Sciences, Irvine, CA, USA; Kinesiology Department, University of Maryland, College Park, MD, USA; Division of Geriatrics General Internal Medicine and Palliative Medicine Department of Medicine, University of Arizona, Tucson, AZ, USA; Department of Biomedical Engineering and the Division of Geriatrics General Internal Medicine and Palliative Medicine Department of Medicine, University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226090693</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Frailty Identification Using Heart Rate Dynamics: A Deep Learning Approach</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>IEEE Journal of Biomedical and Health Informatics</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Institute of Electrical and Electronics Engineers</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/jbhi.2022.3152538</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35196247</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/jbhi.2022.3152538</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States of America.; Kinesiology Department, University of Maryland, College Park, MD, United States of America; Edwards Life Sciences, Irvine, CA, United States of America; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States of America; Division of Geriatrics, General Internal Medicine and Palliative Medicine, Department of Medicine, University of Arizona, Tucson, Arizona, United States of America; Arizona Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, United States of America</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213209839</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The association between heart rate behavior and gait performance: The moderating effect of frailty</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-02-16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0264013</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35171947</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0264013</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283730693</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Frailty</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Cambridge University Press eBooks</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/9781108942751.008</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/9781108942751.008</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Arizona Center on Aging, Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA.; Arizona Center on Aging, Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA.; Banner Alzheimer's Institute, Tucson, Arizona, USA.; Department of Neurology, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285732312</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Brain function complexity during dual‐tasking is associated with cognitive impairment and age</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Neuroimaging</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jon.13025</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35843726</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jon.13025</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine University of Arizona College of Medicine  Tucson Arizona USA; Southern Arizona VA Health Care System  Tucson Arizona USA; Department of Medicine University of Arizona College of Medicine  Tucson Arizona USA; Department of Pathology University of Arizona College of Medicine  Tucson Arizona USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4303468892</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>John T. (Jack) Boyer, &lt;scp&gt;MD&lt;/scp&gt;: Reflections of an aging geriatrician</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-10-07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of the American Geriatrics Society</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jgs.18069</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36206529</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jgs.18069</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Mindy J Fain_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Mindy J Fain_2022.xlsx
@@ -621,54 +621,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amy S. Klein, Mindy J. Fain</t>
+          <t>Rosemary Browne, Mindy J. Fain, Leslie V. Boyer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">; </t>
+          <t>Department of Medicine University of Arizona College of Medicine  Tucson Arizona USA; Southern Arizona VA Health Care System  Tucson Arizona USA; Department of Medicine University of Arizona College of Medicine  Tucson Arizona USA; Department of Pathology University of Arizona College of Medicine  Tucson Arizona USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283730693</t>
+          <t>https://openalex.org/W4303468892</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Frailty</t>
+          <t>John T. (Jack) Boyer, &lt;scp&gt;MD&lt;/scp&gt;: Reflections of an aging geriatrician</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cambridge University Press eBooks</t>
+          <t>Journal of the American Geriatrics Society</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Wiley-Blackwell</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jgs.18069</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/9781108942751.008</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
@@ -691,59 +691,59 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36206529</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/9781108942751.008</t>
+          <t>https://doi.org/10.1111/jgs.18069</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Miguel Peña, Kelsi Petrillo, Mark Bosset, Mindy J. Fain, Ying-hui Chou, Steve Rapcsak, Nima Toosizadeh</t>
+          <t>Amy S. Klein, Mindy J. Fain</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Arizona Center on Aging, Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA.; Arizona Center on Aging, Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA.; Banner Alzheimer's Institute, Tucson, Arizona, USA.; Department of Neurology, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.</t>
+          <t xml:space="preserve">; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285732312</t>
+          <t>https://openalex.org/W4283730693</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Brain function complexity during dual‐tasking is associated with cognitive impairment and age</t>
+          <t>Frailty</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Journal of Neuroimaging</t>
+          <t>Cambridge University Press eBooks</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jon.13025</t>
+          <t>https://doi.org/10.1017/9781108942751.008</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -778,49 +778,49 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35843726</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jon.13025</t>
+          <t>https://doi.org/10.1017/9781108942751.008</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rosemary Browne, Mindy J. Fain, Leslie V. Boyer</t>
+          <t>Miguel Peña, Kelsi Petrillo, Mark Bosset, Mindy J. Fain, Ying-hui Chou, Steve Rapcsak, Nima Toosizadeh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Department of Medicine University of Arizona College of Medicine  Tucson Arizona USA; Southern Arizona VA Health Care System  Tucson Arizona USA; Department of Medicine University of Arizona College of Medicine  Tucson Arizona USA; Department of Pathology University of Arizona College of Medicine  Tucson Arizona USA</t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.; Arizona Center on Aging, Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA.; Arizona Center on Aging, Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA.; Banner Alzheimer's Institute, Tucson, Arizona, USA.; Department of Neurology, University of Arizona, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4303468892</t>
+          <t>https://openalex.org/W4285732312</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>John T. (Jack) Boyer, &lt;scp&gt;MD&lt;/scp&gt;: Reflections of an aging geriatrician</t>
+          <t>Brain function complexity during dual‐tasking is associated with cognitive impairment and age</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Journal of the American Geriatrics Society</t>
+          <t>Journal of Neuroimaging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jgs.18069</t>
+          <t>https://doi.org/10.1111/jon.13025</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36206529</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35843726</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jgs.18069</t>
+          <t>https://doi.org/10.1111/jon.13025</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
